--- a/4.Test/1.UpToNow_Loi_DeXuatSua.xlsx
+++ b/4.Test/1.UpToNow_Loi_DeXuatSua.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C63F98-ADED-45EE-BA5A-8E660876C38A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B9A52C-5E61-4F3B-BCEC-DEA9EE1A7F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Loi_DeXuat" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi_DeXuat!$A$1:$J$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi_DeXuat!$A$1:$J$36</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="122">
   <si>
     <t>TT</t>
   </si>
@@ -480,6 +480,19 @@
   </si>
   <si>
     <t>Xuất kho/Nhập kho/Yêu cầu</t>
+  </si>
+  <si>
+    <t>Quản lý xuất kho
+Quản lý nhập kho</t>
+  </si>
+  <si>
+    <t>Khởi tạo màn hình</t>
+  </si>
+  <si>
+    <t>20/7/2020</t>
+  </si>
+  <si>
+    <t>Khi mới tạo user, chưa gán quyền quản lý theo kho hoặc đối tác thì không nhìn thấy kho/đối tác trên các màn hình xuất/nhập/tiện ích. Để mặc định nếu chưa được gán kho, đối tác nào mà khách hàng này không cần phân quyền theo đối tác thì được nhìn thấy hết.</t>
   </si>
 </sst>
 </file>
@@ -525,7 +538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,20 +557,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -580,22 +581,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -604,7 +594,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -642,55 +631,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,7 +923,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1000,1012 +942,1012 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="G2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="8"/>
+      <c r="J2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>44136</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="8" t="s">
+      <c r="G4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="8"/>
+      <c r="G5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="8"/>
+      <c r="G6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="17" t="s">
+      <c r="G7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="17"/>
+      <c r="J8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="174" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="G9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="17"/>
+      <c r="J9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="17" t="s">
+      <c r="G10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="17"/>
+      <c r="G11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="17"/>
+      <c r="G12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="80.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="20" t="s">
+      <c r="G13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="17" t="s">
+      <c r="G14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="17"/>
+      <c r="G15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="17"/>
+      <c r="G16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="17"/>
+      <c r="G17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="17" t="s">
+      <c r="G18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="23" customFormat="1" ht="95.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+    <row r="19" spans="1:11" s="17" customFormat="1" ht="95.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="17" t="s">
+      <c r="G19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="23" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="1:11" s="17" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="17" t="s">
+      <c r="G20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="23" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+    <row r="21" spans="1:11" s="17" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="17"/>
+      <c r="G21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="8" t="s">
+      <c r="H22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="17"/>
+      <c r="J22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" ht="104" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="E23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="8" t="s">
+      <c r="H23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="17" t="s">
+      <c r="J23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="62.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="E24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="17"/>
+      <c r="H24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:11" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="E25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="17"/>
+      <c r="G25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="62.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="17"/>
+      <c r="G26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="16"/>
     </row>
     <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="17"/>
-    </row>
-    <row r="28" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="25">
+      <c r="G27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="1:11" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="27" t="s">
+      <c r="G28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="K28" s="28" t="s">
+      <c r="J28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="17"/>
-    </row>
-    <row r="30" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+      <c r="G29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:11" ht="87" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="24" t="s">
+      <c r="J30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="16" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2028,165 +1970,195 @@
       <c r="F31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>5</v>
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A32" s="30">
+    <row r="32" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="34" t="s">
+      <c r="H32" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I32" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="35" t="s">
+      <c r="I32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K32" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="30">
-        <v>31</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="30" t="s">
+      <c r="K35" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="8">
+        <v>36</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" s="33" t="s">
+      <c r="F36" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="I33" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="K33" s="31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="30">
-        <v>32</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="I34" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="K34" s="31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="30">
-        <v>33</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="I35" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="K35" s="31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="29"/>
+      <c r="H36" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J34" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:J36" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="9">
       <filters>
         <filter val="New"/>

--- a/4.Test/1.UpToNow_Loi_DeXuatSua.xlsx
+++ b/4.Test/1.UpToNow_Loi_DeXuatSua.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B9A52C-5E61-4F3B-BCEC-DEA9EE1A7F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD778331-A30E-495C-87CB-0606FEBFB33C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Loi_DeXuat" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi_DeXuat!$A$1:$J$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi_DeXuat!$A$1:$J$35</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="118">
   <si>
     <t>TT</t>
   </si>
@@ -480,19 +480,6 @@
   </si>
   <si>
     <t>Xuất kho/Nhập kho/Yêu cầu</t>
-  </si>
-  <si>
-    <t>Quản lý xuất kho
-Quản lý nhập kho</t>
-  </si>
-  <si>
-    <t>Khởi tạo màn hình</t>
-  </si>
-  <si>
-    <t>20/7/2020</t>
-  </si>
-  <si>
-    <t>Khi mới tạo user, chưa gán quyền quản lý theo kho hoặc đối tác thì không nhìn thấy kho/đối tác trên các màn hình xuất/nhập/tiện ích. Để mặc định nếu chưa được gán kho, đối tác nào mà khách hàng này không cần phân quyền theo đối tác thì được nhìn thấy hết.</t>
   </si>
 </sst>
 </file>
@@ -920,10 +907,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61981617-6D17-44F7-B815-AB1E2A7DCC4E}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2124,41 +2111,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="8">
-        <v>36</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K36" s="9"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J36" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:J35" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="9">
       <filters>
         <filter val="New"/>

--- a/4.Test/1.UpToNow_Loi_DeXuatSua.xlsx
+++ b/4.Test/1.UpToNow_Loi_DeXuatSua.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD778331-A30E-495C-87CB-0606FEBFB33C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D284CBEA-FD57-4251-AD85-854E275A9388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="119">
   <si>
     <t>TT</t>
   </si>
@@ -480,6 +480,43 @@
   </si>
   <si>
     <t>Xuất kho/Nhập kho/Yêu cầu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nếu trong yêu cầu xuất kho có hàng hóa mà hàng hóa đó không có trong kho thì hiện tại đang không đưa ra hàng hóa đó tại phiếu nhặt hàng =&gt; khi in phiếu nhặt hàng thủ kho không biết mặt  hàng nào đang bị thiếu so với yêu cầu, mặt hàng nào không có.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Giải pháp:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Luôn hiển thị tất cả các mặt hàng trong yêu cầu xuất kho. Hiển thị rõ cột số lượng yêu cầu và số lượng tồn kho để thủ kho biết.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -525,7 +562,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,6 +578,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -620,6 +663,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,11 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61981617-6D17-44F7-B815-AB1E2A7DCC4E}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -963,7 +1018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1031,7 +1086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1064,7 +1119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1095,7 +1150,7 @@
       </c>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1128,7 +1183,7 @@
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1163,7 +1218,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1196,7 +1251,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1229,7 +1284,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1264,7 +1319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1297,7 +1352,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1330,7 +1385,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11" ht="80.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1365,7 +1420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1400,7 +1455,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1433,7 +1488,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1466,7 +1521,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1499,7 +1554,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1534,7 +1589,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="17" customFormat="1" ht="95.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" s="17" customFormat="1" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1569,7 +1624,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="17" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1604,7 +1659,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="17" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1637,7 +1692,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1668,7 +1723,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="104" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="104" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1703,7 +1758,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="62.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1736,7 +1791,7 @@
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1769,7 +1824,7 @@
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" ht="62.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1802,7 +1857,7 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1835,7 +1890,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1870,7 +1925,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1903,7 +1958,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -1971,7 +2026,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -2006,7 +2061,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -2041,7 +2096,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -2076,7 +2131,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -2111,14 +2166,41 @@
         <v>115</v>
       </c>
     </row>
+    <row r="36" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+      <c r="A36" s="18">
+        <v>34</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" s="22"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J35" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="New"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{4DA8D2B7-FCF2-483B-B082-13335AF92B1D}">
       <formula1>"New, Resolve, Confirm, Close, Cancel, Accept"</formula1>
